--- a/Practical13/random_k.xlsx
+++ b/Practical13/random_k.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,16 +417,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.3102677193016845</v>
+        <v>0.3777482768709249</v>
       </c>
       <c r="B2">
-        <v>0.6091936576333759</v>
+        <v>0.03817849053494404</v>
       </c>
       <c r="C2">
-        <v>0.4156623639408855</v>
+        <v>0.04526594165343867</v>
       </c>
       <c r="D2">
-        <v>0.05187050671292281</v>
+        <v>0.8348174324026497</v>
       </c>
       <c r="E2">
         <v>70</v>
@@ -437,61 +437,21 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.2687776806359263</v>
+        <v>0.2282614983424548</v>
       </c>
       <c r="B3">
-        <v>0.7280425932253098</v>
+        <v>0.5651805151262905</v>
       </c>
       <c r="C3">
-        <v>0.5616271772494773</v>
+        <v>0.8280015671945461</v>
       </c>
       <c r="D3">
-        <v>0.3233458039049536</v>
+        <v>0.553557235799242</v>
       </c>
       <c r="E3">
         <v>70</v>
       </c>
       <c r="F3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>0.630446039451628</v>
-      </c>
-      <c r="B4">
-        <v>0.9930803650786787</v>
-      </c>
-      <c r="C4">
-        <v>0.1509077931865681</v>
-      </c>
-      <c r="D4">
-        <v>0.6694615559876935</v>
-      </c>
-      <c r="E4">
-        <v>70</v>
-      </c>
-      <c r="F4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>0.06383025509135587</v>
-      </c>
-      <c r="B5">
-        <v>0.5882373547321414</v>
-      </c>
-      <c r="C5">
-        <v>0.9503062861975027</v>
-      </c>
-      <c r="D5">
-        <v>0.1963836333415468</v>
-      </c>
-      <c r="E5">
-        <v>70</v>
-      </c>
-      <c r="F5">
         <v>105</v>
       </c>
     </row>
